--- a/ProjectileProperties.xlsx
+++ b/ProjectileProperties.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalgl\OneDrive\Documents\4th year\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalgl\OneDrive\Documents\4th year\GDP\Space-Shield-GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{D97A9645-8376-47A3-93E5-1B600E661BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8B010C2-B537-4319-BBBC-23C1DE904958}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D97A9645-8376-47A3-93E5-1B600E661BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D11E865-B674-429E-97F7-EA5AC234FF2B}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="732" windowWidth="22476" windowHeight="12228" xr2:uid="{8E6AD4A9-D199-490C-B0C4-16ECD929327E}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{8E6AD4A9-D199-490C-B0C4-16ECD929327E}"/>
   </bookViews>
   <sheets>
     <sheet name="Al 6061-T6" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>diameter</t>
   </si>
@@ -401,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D59C6DB-8B00-46C4-8A51-AF5877D61E7B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,4 +438,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDA3E0-F9D9-46B3-8EB2-F9F5B717EB0E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectileProperties.xlsx
+++ b/ProjectileProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalgl\OneDrive\Documents\4th year\GDP\Space-Shield-GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D97A9645-8376-47A3-93E5-1B600E661BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D11E865-B674-429E-97F7-EA5AC234FF2B}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D97A9645-8376-47A3-93E5-1B600E661BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10B7DC5E-CFFC-48E5-9A4F-6844C795CD51}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{8E6AD4A9-D199-490C-B0C4-16ECD929327E}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{8E6AD4A9-D199-490C-B0C4-16ECD929327E}"/>
   </bookViews>
   <sheets>
     <sheet name="Al 6061-T6" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
